--- a/biology/Botanique/Olea_palawanensis/Olea_palawanensis.xlsx
+++ b/biology/Botanique/Olea_palawanensis/Olea_palawanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea palawanensis Kiew est un végétal appartenant au genre Olea. C'est un petit buisson qui pousse aux Philippines. Il a été reconnu et classé dans le sous-genre Tetrapilus par P.S. Green lors de sa révision du genre Olea (2002) avec ses synonymes et sa description botanique (taxon 30 Tetrapilus).
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun synonyme cité.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Forme végétative : arbuste 3 m de haut max. ;
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forme végétative : arbuste 3 m de haut max. ;
 sexualisation : androdioïque ;
 Ramure : jeunes pousses glabres ;
 Foliarisation : feuilles épaisses et coriaces, glabres ;
@@ -553,9 +572,43 @@
 limbe étroitement ovale ou ovale à étroitement elliptique-oblong, 4,5 à 10 cm de long et large de 2 à 5 cm de large, la base est cordée,
 bords entiers ou quelques feuilles dentées occasionnellement de 0,5 à 1 mm dans la moitié supérieure,
 apex aigu ("ou rétus").
-Nervures : 6("-9") nervures de part et d'autre de la nervure principale, plane sur la face supérieure, saillante en dessous.
-Appareil reproducteur
-inflorescences : axillaires, paniculées de 2 à 3 cm de long, fleurs abondantes ;
+Nervures : 6("-9") nervures de part et d'autre de la nervure principale, plane sur la face supérieure, saillante en dessous.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_palawanensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_palawanensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>inflorescences : axillaires, paniculées de 2 à 3 cm de long, fleurs abondantes ;
 andro-dioïques, 7 fleurs subombellées ;
 pédicelles ont 1 à 2 mm de long.
 fleurs mâles : les seules observées.
@@ -565,41 +618,7 @@
 2 étamines :
 anthères plus ou moins globuleux, de 1 mm de longueur dans les fleurs mâles et de 0,5 mm dans les bisexuées .
 ovaire absent dans les fleurs mâles, ovoïde de 1 mm de long dans les bisexuées, stigmate sessile, capité ;
-fruit : drupe ellipsoïde de 6 par 4 mm.
-Répartition géographique
-Le matériel examiné provient des Philippines :
-Palawan : Mount Bloomfield, Baie de Saint-Paul (mai 1984).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olea_palawanensis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_palawanensis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est recherchée par les amateurs de bonsaïs.
-</t>
+fruit : drupe ellipsoïde de 6 par 4 mm.</t>
         </is>
       </c>
     </row>
@@ -624,10 +643,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le matériel examiné provient des Philippines :
+Palawan : Mount Bloomfield, Baie de Saint-Paul (mai 1984).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_palawanensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_palawanensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est recherchée par les amateurs de bonsaïs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_palawanensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_palawanensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
